--- a/Win32/Binaries/Table/servantbattleopen.xlsx
+++ b/Win32/Binaries/Table/servantbattleopen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>开启位置</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,12 +45,16 @@
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>客户端用gameconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,9 +197,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,16 +408,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -422,7 +428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -433,7 +439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -444,7 +450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -455,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -466,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -477,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -488,78 +494,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>1800</v>
@@ -573,24 +579,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -606,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -614,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -622,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -630,7 +639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,7 +647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -646,7 +655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -654,7 +663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -662,7 +671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -670,7 +679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -678,7 +687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -686,7 +695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -702,12 +711,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
